--- a/数据整理/stocks/港股/00883-中国海洋石油.xlsx
+++ b/数据整理/stocks/港股/00883-中国海洋石油.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4842,4 +4843,1922 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3875</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9989</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.7035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2976</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9879</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2505</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2462</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0677</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6212</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3789</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7740</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7248</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>46.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5911</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4554</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3748</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>46.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00883-中国海洋石油.xlsx
+++ b/数据整理/stocks/港股/00883-中国海洋石油.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6761,4 +6762,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>54.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00883-中国海洋石油.xlsx
+++ b/数据整理/stocks/港股/00883-中国海洋石油.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6770,7 +6771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6781,17 +6782,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6801,14 +6822,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.21</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8845</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6817,14 +6860,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.52</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6833,13 +6898,1617 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2610</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2217</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6326</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4114</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0653</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0356</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0902</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3593</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3235</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>36.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>62</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>54.21</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00883-中国海洋石油.xlsx
+++ b/数据整理/stocks/港股/00883-中国海洋石油.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8423,7 +8424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8434,17 +8435,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8454,14 +8475,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.86</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7041</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -8470,14 +8513,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.21</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -8486,14 +8551,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.52</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7780</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8502,13 +8589,4065 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4831</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.1833</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5176</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3967</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3448</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8952</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014423</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8941</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6546</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6116</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5378</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4462</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4361</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3791</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3492</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>32.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7781</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7726</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>41.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6179</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6165</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5749</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5703</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5703</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5482</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5233</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5226</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>67.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5052</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4838</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4503</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3786</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3764</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3605</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3568</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3539</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3468</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3031</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>107</v>
+      </c>
+      <c r="D2" t="n">
+        <v>72.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>62</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>54.21</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00883-中国海洋石油.xlsx
+++ b/数据整理/stocks/港股/00883-中国海洋石油.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="D2" t="n">
-        <v>72.69</v>
+        <v>100.31</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="D3" t="n">
-        <v>39.86</v>
+        <v>72.69</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>41.21</v>
+        <v>39.86</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>45.52</v>
+        <v>41.21</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>62</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>54.21</v>
       </c>
     </row>
@@ -566,6 +583,7424 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H195"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.6772</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6794</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>107.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.3945</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8906</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6185</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.4822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010196</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2784</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7425</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3987</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009100</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>113.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3665</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3171</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9338</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9069</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014423</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8516</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009101</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7560</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6175</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4178</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1722</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011847</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0038</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9433</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012820</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富价值领先混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9365</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013095</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9274</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8509</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8040</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7959</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011893</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7403</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012609</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信稳健汇利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7295</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7289</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6966</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6813</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6229</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5105</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5082</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4927</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009998</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根慧见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4684</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4654</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4653</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4355</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008314</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4324</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012610</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信稳健汇利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>18.98</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3872</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012227</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3551</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3494</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3494</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3356</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3352</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3215</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013096</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>安信远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安香港精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012250</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008315</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012251</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>52.53</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012826</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银聚宁9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012993</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富品牌力一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010949</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>景顺长城研究驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>67.69</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华安红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014148</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>012228</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011848</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>014149</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011894</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>安信企业价值优选混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>012994</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>汇添富品牌力一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>66.54</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>012827</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>工银聚宁9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>014127</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>015116</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>015117</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合D</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4687,7 +12122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6339,7 +13774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8257,7 +15692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10251,7 +17686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00883-中国海洋石油.xlsx
+++ b/数据整理/stocks/港股/00883-中国海洋石油.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D2" t="n">
-        <v>100.31</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="D3" t="n">
-        <v>72.69</v>
+        <v>100.31</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="D4" t="n">
-        <v>39.86</v>
+        <v>72.69</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>41.21</v>
+        <v>39.86</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>45.52</v>
+        <v>41.21</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>51</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>62</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>54.21</v>
       </c>
     </row>
@@ -583,6 +600,6938 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H182"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.5464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>109.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.0613</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2781</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8248</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6491</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3832</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1682</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8708</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>54.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6772</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009100</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>102.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6036</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4973</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2088</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.0308</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0263</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014423</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9421</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009101</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>67.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7187</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>42.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5762</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5158</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4853</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4779</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3565</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2773</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011847</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2308</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>36.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1599</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012820</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富价值领先混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1581</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013095</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9340</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011893</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8782</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8233</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7618</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7590</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7482</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6657</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6568</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6207</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5876</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5434</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5341</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>75.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5309</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5085</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5030</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014917</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5009</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4929</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4913</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4793</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4630</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4626</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4602</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4476</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4079</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3823</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>75.41</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3742</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015978</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>安信恒鑫增强债券A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015979</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信恒鑫增强债券C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2687</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2437</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012250</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>63.31</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011562</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富稳健盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013096</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>安信远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安香港精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012251</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>63.31</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013958</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华商鑫选回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010949</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>景顺长城研究驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>79.60</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010036</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014918</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010870</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇添富稳健鑫添益六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011994</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国联安核心优势混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>31.31</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014148</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011848</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013855</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010900</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中欧生益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012952</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇添富鑫享添利六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011118</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇添富稳健睿选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>013959</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华商鑫选回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>016298</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011119</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>汇添富稳健睿选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>014149</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012951</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>汇添富鑫享添利六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>31.31</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>016297</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>013856</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>嘉实品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011894</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>010901</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>中欧生益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010038</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>016742</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8000,7 +14949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12122,7 +19071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13774,7 +20723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15692,7 +22641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17686,7 +24635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
